--- a/Lin_Rohner_lab4/Data_lab4A_stiction torque/data_lab4A_stiction torque_02_cw.xlsx
+++ b/Lin_Rohner_lab4/Data_lab4A_stiction torque/data_lab4A_stiction torque_02_cw.xlsx
@@ -76,7 +76,7 @@
         <v>-0.003550</v>
       </c>
       <c r="C2" s="1">
-        <v>9.943526</v>
+        <v>3.711322</v>
       </c>
       <c r="D2" s="1">
         <v>0.049072</v>
@@ -87,13 +87,13 @@
         <v>1.000000</v>
       </c>
       <c r="B3" s="1">
-        <v>-0.007835</v>
+        <v>0.000735</v>
       </c>
       <c r="C3" s="1">
-        <v>9.943526</v>
+        <v>3.711322</v>
       </c>
       <c r="D3" s="1">
-        <v>0.000000</v>
+        <v>0.049072</v>
       </c>
     </row>
     <row r="4">
@@ -101,10 +101,10 @@
         <v>2.000000</v>
       </c>
       <c r="B4" s="1">
-        <v>-0.012120</v>
+        <v>0.005020</v>
       </c>
       <c r="C4" s="1">
-        <v>9.943526</v>
+        <v>3.760395</v>
       </c>
       <c r="D4" s="1">
         <v>0.000000</v>
@@ -115,10 +115,10 @@
         <v>3.000000</v>
       </c>
       <c r="B5" s="1">
-        <v>-0.016405</v>
+        <v>0.009305</v>
       </c>
       <c r="C5" s="1">
-        <v>9.943526</v>
+        <v>3.760395</v>
       </c>
       <c r="D5" s="1">
         <v>0.000000</v>
@@ -129,13 +129,13 @@
         <v>4.000000</v>
       </c>
       <c r="B6" s="1">
-        <v>-0.020690</v>
+        <v>0.013590</v>
       </c>
       <c r="C6" s="1">
-        <v>9.943526</v>
+        <v>3.613177</v>
       </c>
       <c r="D6" s="1">
-        <v>0.000000</v>
+        <v>0.147217</v>
       </c>
     </row>
     <row r="7">
@@ -143,83 +143,13 @@
         <v>5.000000</v>
       </c>
       <c r="B7" s="1">
-        <v>-0.024975</v>
+        <v>0.017875</v>
       </c>
       <c r="C7" s="1">
-        <v>9.943526</v>
+        <v>3.073380</v>
       </c>
       <c r="D7" s="1">
-        <v>0.000000</v>
-      </c>
-    </row>
-    <row r="8">
-      <c r="A8" s="1">
-        <v>6.000000</v>
-      </c>
-      <c r="B8" s="1">
-        <v>-0.029260</v>
-      </c>
-      <c r="C8" s="1">
-        <v>10.139816</v>
-      </c>
-      <c r="D8" s="1">
-        <v>0.196290</v>
-      </c>
-    </row>
-    <row r="9">
-      <c r="A9" s="1">
-        <v>7.000000</v>
-      </c>
-      <c r="B9" s="1">
-        <v>-0.033545</v>
-      </c>
-      <c r="C9" s="1">
-        <v>10.336106</v>
-      </c>
-      <c r="D9" s="1">
-        <v>0.196290</v>
-      </c>
-    </row>
-    <row r="10">
-      <c r="A10" s="1">
-        <v>8.000000</v>
-      </c>
-      <c r="B10" s="1">
-        <v>-0.037830</v>
-      </c>
-      <c r="C10" s="1">
-        <v>10.532396</v>
-      </c>
-      <c r="D10" s="1">
-        <v>0.196290</v>
-      </c>
-    </row>
-    <row r="11">
-      <c r="A11" s="1">
-        <v>9.000000</v>
-      </c>
-      <c r="B11" s="1">
-        <v>-0.042115</v>
-      </c>
-      <c r="C11" s="1">
-        <v>10.875903</v>
-      </c>
-      <c r="D11" s="1">
-        <v>0.343507</v>
-      </c>
-    </row>
-    <row r="12">
-      <c r="A12" s="1">
-        <v>10.000000</v>
-      </c>
-      <c r="B12" s="1">
-        <v>-0.046400</v>
-      </c>
-      <c r="C12" s="1">
-        <v>13.378600</v>
-      </c>
-      <c r="D12" s="1">
-        <v>2.502696</v>
+        <v>0.687015</v>
       </c>
     </row>
   </sheetData>
